--- a/data/output/Pedido_Semana_07_13022026_tierras_aridos.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_tierras_aridos.xlsx
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>3101010002</t>
@@ -768,7 +768,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25L      </t>
+          <t xml:space="preserve">12L      </t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.65</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.06</v>
+        <v>3.22</v>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="K4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>139.15</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>83.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
@@ -818,22 +818,22 @@
         </is>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" hidden="1">
@@ -849,7 +849,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12L      </t>
+          <t xml:space="preserve">25L      </t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.22</v>
+        <v>5.06</v>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="P5" s="3" t="n">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>3101010003</t>
@@ -930,7 +930,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">80L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>25.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>10.28</v>
+        <v>3.92</v>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
@@ -963,16 +963,16 @@
         </is>
       </c>
       <c r="K6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>154.2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>3101010003</t>
@@ -1050,10 +1050,10 @@
         <v>-2</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>47.4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="inlineStr">
         <is>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" hidden="1">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">80L      </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>25.7</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3.92</v>
+        <v>10.28</v>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="K8" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="3" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>3102010001</t>
@@ -1212,10 +1212,10 @@
         <v>-3</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>85.05</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>51.03</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="inlineStr">
         <is>
@@ -1223,25 +1223,25 @@
         </is>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>3102050001</t>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50L      </t>
+          <t xml:space="preserve">20L      </t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1271,10 +1271,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>23.03</v>
+        <v>11.2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>4.48</v>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>69.08</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>41.45</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1304,22 +1304,22 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" hidden="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">50L      </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1352,10 +1352,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>11.2</v>
+        <v>23.03</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>4.48</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>3102060001</t>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1466,25 +1466,25 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>3102100001</t>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>52.44</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22.2</v>
+        <v>44.4</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>13.32</v>
+        <v>26.64</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3103040001</t>
@@ -1779,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>49.6</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>29.76</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3203050002</t>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>325.35</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>195.21</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>3203050018</t>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>61.05</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>36.63</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>3203050022</t>
@@ -2019,13 +2019,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>97.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>58.69</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>3203050025</t>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5I10     </t>
+          <t xml:space="preserve">10I25    </t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>4.68</v>
@@ -2097,16 +2097,16 @@
         </is>
       </c>
       <c r="K20" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>42.08</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" hidden="1">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">10I25    </t>
+          <t xml:space="preserve">5I10     </t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>4.68</v>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="K21" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="3" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U21" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>3203050027</t>
@@ -2262,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>3203050019</t>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>3101010006</t>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">25L      </t>
+          <t xml:space="preserve">12L      </t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>11.23</v>
+        <v>6.7</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>4.49</v>
+        <v>2.68</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>26.94</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="inlineStr">
         <is>
@@ -2438,22 +2438,22 @@
         </is>
       </c>
       <c r="P24" s="3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" hidden="1">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">12L      </t>
+          <t xml:space="preserve">25L      </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -2486,10 +2486,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>6.7</v>
+        <v>11.23</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>2.68</v>
+        <v>4.49</v>
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
@@ -2528,16 +2528,16 @@
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>3101010007</t>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">40L      </t>
+          <t xml:space="preserve">70L      </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2564,13 +2564,13 @@
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
@@ -2586,13 +2586,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>47.55</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>28.53</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2600,25 +2600,25 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>3101010007</t>
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>2</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>3101010007</t>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">70L      </t>
+          <t xml:space="preserve">40L      </t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>0</v>
+        <v>7.92</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
@@ -2762,25 +2762,25 @@
         </is>
       </c>
       <c r="P28" s="3" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>3102070002</t>
@@ -2829,13 +2829,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>25.05</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>15.03</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2924,19 +2924,19 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" s="8" t="n">
         <v>2</v>
@@ -2994,10 +2994,10 @@
         <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>3103040002</t>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3086,22 +3086,22 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3237,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>16.27</v>
+        <v>48.82</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>9.76</v>
+        <v>29.29</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3257,175 +3257,175 @@
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U34" s="8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>3101010005</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20L      </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>3101010005</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50L      </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>tierras_aridos</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>3101010005</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">50L      </t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G35" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="6" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="N35" s="4" t="n">
-        <v>116.82</v>
-      </c>
-      <c r="O35" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
-        </is>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="R35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="T35" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U35" s="8" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>3101010005</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SACO SUSTRATO UNIVERSAL EMUFLOR</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">70L      </t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>tierras_aridos</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6" t="n">
-        <v>118</v>
-      </c>
-      <c r="N36" s="4" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="O36" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEMILLAS FLORALES, S.L.                                                                                                 </t>
-        </is>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" hidden="1">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">20L      </t>
+          <t xml:space="preserve">70L      </t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>3.67</v>
+        <v>11.8</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>1.47</v>
+        <v>4.72</v>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="K37" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>3102060002</t>
@@ -3561,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>18.54</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>3102080001</t>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>30.24</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3653,10 +3653,10 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>3102110003</t>
@@ -3723,10 +3723,10 @@
         <v>2</v>
       </c>
       <c r="M40" s="6" t="n">
-        <v>117.2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>70.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="inlineStr">
         <is>
@@ -3734,25 +3734,25 @@
         </is>
       </c>
       <c r="P40" s="3" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="R40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T40" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U40" s="8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>3202030005</t>
@@ -3804,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>131.4</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>78.84</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3815,25 +3815,25 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T41" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3203030002</t>
@@ -3885,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>33.98</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>20.39</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="inlineStr">
         <is>
@@ -3896,10 +3896,10 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3963,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>236.4</v>
+        <v>295.5</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>141.84</v>
+        <v>177.3</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44"/>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>329</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>2475.13€</t>
+          <t>455.87€</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="C57" s="5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
